--- a/sicily可供练习题目.xlsx
+++ b/sicily可供练习题目.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_file\sicily\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="19395" windowHeight="8280"/>
+    <workbookView xWindow="1980" yWindow="60" windowWidth="19395" windowHeight="8280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="145">
   <si>
     <t>题号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -563,13 +568,20 @@
   </si>
   <si>
     <t>考虑如何把输入的x转成int序列 然后高精度除法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MJ, Nowhere to Hide</t>
+  </si>
+  <si>
+    <t>字符串比较和排序</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -644,6 +656,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -690,7 +710,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -722,9 +742,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -756,6 +777,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -931,12 +953,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2040,6 +2062,20 @@
         <v>26</v>
       </c>
     </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="1">
+        <v>1027</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F59">
     <sortState ref="A2:F74">
@@ -2052,12 +2088,12 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2070,7 +2106,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/sicily可供练习题目.xlsx
+++ b/sicily可供练习题目.xlsx
@@ -13,8 +13,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$59</definedName>
@@ -24,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="147">
   <si>
     <t>题号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -575,6 +573,14 @@
   </si>
   <si>
     <t>字符串比较和排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以通过STL里面的algorithm的sort算法来简化比较。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accepted</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -957,8 +963,8 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D76" sqref="D76"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1003,7 +1009,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>43</v>
+        <v>146</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>89</v>
@@ -1077,105 +1083,108 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="27">
       <c r="A7" s="1">
-        <v>1029</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>102</v>
+        <v>1027</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>104</v>
+      <c r="E7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="D8" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>1052</v>
+        <v>1035</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="D9" s="1">
         <v>2</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>84</v>
+      <c r="E9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>1097</v>
+        <v>1052</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>43</v>
+        <v>82</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>1122</v>
+        <v>1097</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>1144</v>
+        <v>1122</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>29</v>
@@ -1187,106 +1196,106 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="27">
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
+        <v>1145</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="27">
+      <c r="A15" s="1">
         <v>1147</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D15" s="1">
         <v>1</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="1" t="s">
+      <c r="E15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1">
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
         <v>1154</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="27">
-      <c r="A16" s="1">
-        <v>1157</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="27">
+      <c r="A17" s="1">
+        <v>1157</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1">
-        <v>1199</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D17" s="1">
-        <v>2</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>1209</v>
+        <v>1199</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="D18" s="1">
         <v>2</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>43</v>
+      <c r="E18" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>1218</v>
+        <v>1209</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>65</v>
@@ -1300,44 +1309,50 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
-        <v>1232</v>
+        <v>1218</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="D20" s="1">
-        <v>0</v>
-      </c>
-      <c r="E20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
-        <v>1282</v>
+        <v>1232</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>133</v>
+        <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="D21" s="1">
-        <v>2</v>
-      </c>
-      <c r="E21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>55</v>
+        <v>133</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>43</v>
@@ -1345,194 +1360,188 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
-        <v>1294</v>
+        <v>1286</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>104</v>
+        <v>55</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
+        <v>1294</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
         <v>1302</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="27">
-      <c r="A25" s="1">
+      <c r="E25" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="27">
+      <c r="A26" s="1">
         <v>1323</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D26" s="1">
         <v>3</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="1">
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
         <v>1324</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D26" s="1">
-        <v>0</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="27">
-      <c r="A27" s="1">
-        <v>1325</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="27">
       <c r="A28" s="1">
-        <v>1341</v>
+        <v>1325</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>49</v>
+      <c r="E28" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1">
+        <v>1341</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1">
         <v>1350</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E30" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="27">
-      <c r="A30" s="1">
+    <row r="31" spans="1:6" ht="27">
+      <c r="A31" s="1">
         <v>1381</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D31" s="1">
         <v>2</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F30" s="1" t="s">
+      <c r="E31" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="1">
-        <v>1388</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" s="1">
-        <v>0</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1">
-        <v>1482</v>
+        <v>1388</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>98</v>
+        <v>8</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="D32" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D33" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>43</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1">
-        <v>1485</v>
-      </c>
-      <c r="B34" t="s">
-        <v>99</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>100</v>
+        <v>1484</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="D34" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>43</v>
@@ -1540,91 +1549,97 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1">
-        <v>1510</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>15</v>
+        <v>1485</v>
+      </c>
+      <c r="B35" t="s">
+        <v>99</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="D35" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1">
-        <v>1608</v>
+        <v>1510</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>112</v>
+        <v>15</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D36" s="1">
         <v>0</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>113</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1">
-        <v>1624</v>
+        <v>1608</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>43</v>
+        <v>112</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1">
-        <v>1639</v>
+        <v>1624</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D38" s="1">
-        <v>2</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>92</v>
+        <v>60</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1">
-        <v>1692</v>
+        <v>1639</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>56</v>
+        <v>90</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" s="1">
+        <v>2</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1">
-        <v>1747</v>
+        <v>1694</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>43</v>
@@ -1632,30 +1647,24 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1">
-        <v>1753</v>
+        <v>1747</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D42" s="1">
-        <v>0</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>131</v>
+        <v>52</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1">
-        <v>1814</v>
+        <v>1753</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>131</v>
@@ -1663,129 +1672,129 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1">
+        <v>1814</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1">
         <v>1817</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E45" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="40.5">
-      <c r="A45" s="1">
+    <row r="46" spans="1:6" ht="40.5">
+      <c r="A46" s="1">
         <v>1863</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B46" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D46" s="1">
         <v>3</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E46" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="1">
-        <v>1930</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D46" s="1">
-        <v>0</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="D47" s="1">
         <v>0</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>111</v>
+      <c r="E47" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1">
-        <v>2501</v>
+        <v>1931</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D48" s="1">
-        <v>1</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>43</v>
+        <v>0</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1">
-        <v>3496</v>
+        <v>2501</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>56</v>
+        <v>78</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1">
+        <v>3496</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1">
         <v>3912</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="D50" s="1">
-        <v>0</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="40.5">
-      <c r="A51" s="1">
-        <v>4629</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="D51" s="1">
         <v>0</v>
@@ -1793,16 +1802,16 @@
       <c r="E51" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+    </row>
+    <row r="52" spans="1:6" ht="40.5">
       <c r="A52" s="1">
-        <v>9992</v>
+        <v>4629</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>137</v>
+        <v>63</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="D52" s="1">
         <v>0</v>
@@ -1810,27 +1819,30 @@
       <c r="E52" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="F52" s="1" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1">
+        <v>9992</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1">
         <v>9993</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D53" s="1">
-        <v>1</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="27">
-      <c r="A54" s="1">
-        <v>9994</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="D54" s="1">
         <v>1</v>
@@ -1839,60 +1851,63 @@
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" ht="27">
       <c r="A55" s="1">
+        <v>9994</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D55" s="1">
+        <v>1</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1">
         <v>1000</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D56" s="1">
         <v>0</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="E56" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="40.5">
-      <c r="A56" s="1">
+    <row r="57" spans="1:6" ht="40.5">
+      <c r="A57" s="1">
         <v>1134</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D57" s="1">
         <v>1</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="F57" s="1" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="1">
-        <v>1130</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D57" s="1">
-        <v>3</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1">
-        <v>1818</v>
+        <v>1130</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>28</v>
+        <v>108</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D58" s="1">
+        <v>3</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>110</v>
@@ -1900,27 +1915,24 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1">
-        <v>1036</v>
+        <v>1818</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D59" s="1">
-        <v>1</v>
+        <v>28</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1">
-        <v>1087</v>
+        <v>1036</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D60" s="1">
         <v>1</v>
@@ -1928,72 +1940,75 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1">
-        <v>1099</v>
+        <v>1087</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D61" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1">
-        <v>1100</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D62" s="1">
-        <v>1</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1">
-        <v>1133</v>
+        <v>1100</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D63" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1">
-        <v>1298</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D64" s="1">
-        <v>1</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="1">
-        <v>1299</v>
+        <v>1298</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D65" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="1">
-        <v>1342</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="1">
-        <v>1500</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D67" s="1">
-        <v>1</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="1">
-        <v>1561</v>
+        <v>1500</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="D68" s="1">
         <v>1</v>
@@ -2001,32 +2016,29 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="1">
-        <v>1767</v>
+        <v>1561</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="1">
-        <v>1795</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D70" s="1">
-        <v>1</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="1">
-        <v>1798</v>
+        <v>1795</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D71" s="1">
         <v>1</v>
@@ -2034,13 +2046,13 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="1">
-        <v>1813</v>
+        <v>1798</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D72" s="1">
         <v>1</v>
@@ -2048,37 +2060,37 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="1">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D73" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="1">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="1">
-        <v>1027</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D75" s="1">
-        <v>0</v>
+        <v>1816</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F59">
-    <sortState ref="A2:F74">
+    <sortState ref="A2:F75">
       <sortCondition ref="E1:E59"/>
     </sortState>
   </autoFilter>
@@ -2090,30 +2102,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/sicily可供练习题目.xlsx
+++ b/sicily可供练习题目.xlsx
@@ -9,20 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="60" windowWidth="19395" windowHeight="8280"/>
+    <workbookView xWindow="2910" yWindow="60" windowWidth="19395" windowHeight="8280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$61</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="151">
   <si>
     <t>题号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -581,6 +581,20 @@
   </si>
   <si>
     <t>accepted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Air Express</t>
+  </si>
+  <si>
+    <t>分类优化计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISBN</t>
+  </si>
+  <si>
+    <t>字符串处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -588,7 +602,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -608,6 +622,15 @@
       <sz val="11"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -635,12 +658,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -656,9 +682,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -960,11 +990,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B57" sqref="B57"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -998,431 +1028,401 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="27">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="27">
+      <c r="A3" s="1">
         <v>1001</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>1007</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>94</v>
+        <v>146</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>1014</v>
+        <v>1007</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="27">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>141</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>142</v>
+        <v>39</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="E5" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="27">
       <c r="A6" s="1">
+        <v>1020</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
         <v>1021</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D7" s="1">
         <v>2</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="27">
-      <c r="A7" s="1">
+      <c r="E7" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="27">
+      <c r="A8" s="1">
         <v>1027</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
-        <v>1029</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>104</v>
+      <c r="E8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="D9" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>1052</v>
+        <v>1035</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="D10" s="1">
         <v>2</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>84</v>
+      <c r="E10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>1097</v>
+        <v>1036</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>43</v>
+        <v>69</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>1122</v>
+        <v>1052</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>56</v>
+        <v>82</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>1144</v>
+        <v>1087</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>1145</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>6</v>
+        <v>1093</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="27">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>1147</v>
+        <v>1097</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>93</v>
+        <v>53</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>1154</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="27">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>1157</v>
+        <v>1100</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="D17" s="1">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>87</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>1199</v>
+        <v>1122</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D18" s="1">
-        <v>2</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>129</v>
+        <v>59</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>1209</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>72</v>
+        <v>1129</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>149</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="D19" s="1">
-        <v>2</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>43</v>
+        <v>0</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
-        <v>1218</v>
+        <v>1130</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="D20" s="1">
-        <v>2</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>43</v>
+        <v>3</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
-        <v>1232</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="40.5">
       <c r="A22" s="1">
-        <v>1282</v>
+        <v>1134</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="D22" s="1">
-        <v>2</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>43</v>
+        <v>1</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
-        <v>1286</v>
+        <v>1144</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
-        <v>1294</v>
+        <v>1145</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>106</v>
+        <v>6</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>107</v>
+        <v>29</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="27">
       <c r="A25" s="1">
-        <v>1302</v>
+        <v>1147</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="27">
+        <v>11</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
-        <v>1323</v>
+        <v>1154</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>118</v>
+        <v>23</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>119</v>
+        <v>42</v>
       </c>
       <c r="D26" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="27">
       <c r="A27" s="1">
-        <v>1324</v>
+        <v>1157</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
@@ -1430,668 +1430,732 @@
       <c r="E27" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="27">
+      <c r="F27" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
-        <v>1325</v>
+        <v>1199</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>41</v>
+        <v>127</v>
       </c>
       <c r="D28" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1">
-        <v>1341</v>
+        <v>1209</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D29" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
-        <v>1350</v>
+        <v>1218</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="27">
+        <v>64</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
-        <v>1381</v>
+        <v>1232</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="D31" s="1">
-        <v>2</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>101</v>
+        <v>0</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1">
-        <v>1388</v>
+        <v>1282</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>8</v>
+        <v>133</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>29</v>
+        <v>134</v>
       </c>
       <c r="D32" s="1">
-        <v>0</v>
-      </c>
-      <c r="E32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1">
-        <v>1482</v>
+        <v>1286</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D33" s="1">
-        <v>2</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>115</v>
+        <v>55</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1">
-        <v>1484</v>
+        <v>1294</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D34" s="1">
-        <v>4</v>
+        <v>106</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1">
-        <v>1485</v>
-      </c>
-      <c r="B35" t="s">
-        <v>99</v>
+        <v>1298</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D35" s="1">
-        <v>2</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1">
-        <v>1510</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D36" s="1">
-        <v>0</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>50</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1">
-        <v>1608</v>
+        <v>1302</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D37" s="1">
-        <v>0</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>58</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="27">
       <c r="A38" s="1">
-        <v>1624</v>
+        <v>1323</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>43</v>
+        <v>118</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D38" s="1">
+        <v>3</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1">
-        <v>1639</v>
+        <v>1324</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="D39" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="27">
       <c r="A40" s="1">
-        <v>1692</v>
+        <v>1325</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>56</v>
+        <v>22</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1">
-        <v>1694</v>
+        <v>1341</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1">
-        <v>1747</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>43</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1">
-        <v>1753</v>
+        <v>1350</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D43" s="1">
-        <v>0</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>57</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="27">
       <c r="A44" s="1">
-        <v>1814</v>
+        <v>1381</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="D44" s="1">
-        <v>1</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>131</v>
+        <v>2</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1">
-        <v>1817</v>
+        <v>1388</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="40.5">
+        <v>8</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1">
-        <v>1863</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>77</v>
+        <v>1482</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="D46" s="1">
-        <v>3</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>76</v>
+        <v>2</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1">
-        <v>1930</v>
+        <v>1484</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="D47" s="1">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>46</v>
+        <v>4</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1">
-        <v>1931</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>73</v>
+        <v>1485</v>
+      </c>
+      <c r="B48" t="s">
+        <v>99</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="D48" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="1">
-        <v>2501</v>
+        <v>1500</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="D49" s="1">
         <v>1</v>
       </c>
-      <c r="E49" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="1">
-        <v>3496</v>
+        <v>1510</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>15</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="1">
-        <v>3912</v>
+        <v>1561</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="D51" s="1">
-        <v>0</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="40.5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="1">
-        <v>4629</v>
+        <v>1608</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="D52" s="1">
         <v>0</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="E52" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="1">
-        <v>9992</v>
+        <v>1624</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D53" s="1">
+        <v>60</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1">
+        <v>1639</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D54" s="1">
+        <v>2</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1">
+        <v>1692</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1">
+        <v>1694</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1">
+        <v>1747</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1">
+        <v>1753</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D58" s="1">
         <v>0</v>
       </c>
-      <c r="E53" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="1">
-        <v>9993</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D54" s="1">
-        <v>1</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="27">
-      <c r="A55" s="1">
-        <v>9994</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D55" s="1">
-        <v>1</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="1">
-        <v>1000</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D56" s="1">
-        <v>0</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="40.5">
-      <c r="A57" s="1">
-        <v>1134</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D57" s="1">
-        <v>1</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="1">
-        <v>1130</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D58" s="1">
-        <v>3</v>
-      </c>
       <c r="E58" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" s="1">
-        <v>1818</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" s="1">
-        <v>1036</v>
+        <v>1795</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D60" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:5">
       <c r="A61" s="1">
-        <v>1087</v>
+        <v>1798</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D61" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:5">
       <c r="A62" s="1">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>1813</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" s="1">
-        <v>1100</v>
+        <v>1814</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="D63" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:6">
+      <c r="E63" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" s="1">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>1815</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1">
-        <v>1298</v>
+        <v>1816</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D65" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>1817</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>1818</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="40.5">
       <c r="A68" s="1">
-        <v>1500</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>16</v>
+        <v>1863</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="D68" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1">
-        <v>1561</v>
+        <v>1930</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>17</v>
+        <v>44</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="D69" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1">
-        <v>1767</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>1931</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1">
-        <v>1795</v>
+        <v>2501</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="D71" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="E71" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1">
-        <v>1798</v>
+        <v>3496</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D72" s="1">
+        <v>61</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="1">
+        <v>3912</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D73" s="1">
+        <v>0</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="40.5">
+      <c r="A74" s="1">
+        <v>4629</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D74" s="1">
+        <v>0</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="1">
+        <v>9992</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="1">
+        <v>9993</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D76" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="1">
-        <v>1813</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D73" s="1">
+      <c r="E76" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="27">
+      <c r="A77" s="1">
+        <v>9994</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D77" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="1">
-        <v>1815</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="1">
-        <v>1816</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>26</v>
+      <c r="E77" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F59">
+  <autoFilter ref="A1:F61">
     <sortState ref="A2:F75">
-      <sortCondition ref="E1:E59"/>
+      <sortCondition ref="A1:A59"/>
     </sortState>
   </autoFilter>
   <sortState ref="A2:F70">
@@ -2099,7 +2163,11 @@
     <sortCondition ref="A2:A70"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B14" r:id="rId1" display="http://soj.me/problem.php?pid=1093"/>
+    <hyperlink ref="B19" r:id="rId2" display="http://soj.me/problem.php?pid=1129"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/sicily可供练习题目.xlsx
+++ b/sicily可供练习题目.xlsx
@@ -9,20 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2910" yWindow="60" windowWidth="19395" windowHeight="8280"/>
+    <workbookView xWindow="4770" yWindow="60" windowWidth="19395" windowHeight="8280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$62</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="156">
   <si>
     <t>题号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -595,6 +595,25 @@
   </si>
   <si>
     <t>字符串处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can I Post the lette</t>
+  </si>
+  <si>
+    <t>沃舍尔算法/深度搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意每次都要重新初始化矩阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用&lt;map&gt;来解决搜索过慢的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fix-&gt;固定小数点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -990,11 +1009,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F77"/>
+  <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1414,69 +1433,72 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="27">
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
+        <v>1155</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="27">
+      <c r="A28" s="1">
         <v>1157</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D28" s="1">
         <v>0</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F27" s="1" t="s">
+      <c r="E28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="1">
-        <v>1199</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D28" s="1">
-        <v>2</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1">
-        <v>1209</v>
+        <v>1199</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="D29" s="1">
         <v>2</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>43</v>
+      <c r="E29" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
-        <v>1218</v>
+        <v>1209</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>65</v>
@@ -1490,44 +1512,50 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
-        <v>1232</v>
+        <v>1218</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="D31" s="1">
-        <v>0</v>
-      </c>
-      <c r="E31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1">
-        <v>1282</v>
+        <v>1232</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>133</v>
+        <v>7</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="D32" s="1">
-        <v>2</v>
-      </c>
-      <c r="E32" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>55</v>
+        <v>133</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D33" s="1">
+        <v>2</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>43</v>
@@ -1535,218 +1563,212 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1">
-        <v>1294</v>
+        <v>1286</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>104</v>
+        <v>55</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D35" s="1">
-        <v>1</v>
+        <v>107</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1">
-        <v>1299</v>
+        <v>1298</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1">
         <v>1302</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E37" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="27">
-      <c r="A38" s="1">
+      <c r="E38" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="27">
+      <c r="A39" s="1">
         <v>1323</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D39" s="1">
         <v>3</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F39" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="1">
+    <row r="40" spans="1:6">
+      <c r="A40" s="1">
         <v>1324</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D39" s="1">
-        <v>0</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="27">
-      <c r="A40" s="1">
-        <v>1325</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="D40" s="1">
         <v>0</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="27">
       <c r="A41" s="1">
-        <v>1341</v>
+        <v>1325</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D41" s="1">
         <v>0</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>49</v>
+      <c r="E41" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1">
-        <v>1342</v>
+        <v>1341</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1">
         <v>1350</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E44" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="27">
-      <c r="A44" s="1">
+    <row r="45" spans="1:6" ht="27">
+      <c r="A45" s="1">
         <v>1381</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D45" s="1">
         <v>2</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F44" s="1" t="s">
+      <c r="E45" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="1">
-        <v>1388</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D45" s="1">
-        <v>0</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1">
-        <v>1482</v>
+        <v>1388</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>98</v>
+        <v>8</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="D46" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D47" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>43</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1">
-        <v>1485</v>
-      </c>
-      <c r="B48" t="s">
-        <v>99</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>100</v>
+        <v>1484</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="D48" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>43</v>
@@ -1754,116 +1776,122 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1">
-        <v>1500</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>16</v>
+        <v>1485</v>
+      </c>
+      <c r="B49" t="s">
+        <v>99</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="D49" s="1">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1">
-        <v>1510</v>
+        <v>1500</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D50" s="1">
-        <v>0</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1">
-        <v>1561</v>
+        <v>1510</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D51" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1">
-        <v>1608</v>
+        <v>1561</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="D52" s="1">
-        <v>0</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>113</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="1">
-        <v>1624</v>
+        <v>1608</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>43</v>
+        <v>112</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="1">
-        <v>1639</v>
+        <v>1624</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D54" s="1">
-        <v>2</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>92</v>
+        <v>60</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="1">
-        <v>1692</v>
+        <v>1639</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>56</v>
+        <v>90</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D55" s="1">
+        <v>2</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="1">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="1">
-        <v>1747</v>
+        <v>1694</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>43</v>
@@ -1871,46 +1899,43 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="1">
-        <v>1753</v>
+        <v>1747</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D58" s="1">
-        <v>0</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>131</v>
+        <v>52</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="1">
-        <v>1767</v>
+        <v>1753</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="1">
-        <v>1795</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D60" s="1">
-        <v>1</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="1">
-        <v>1798</v>
+        <v>1795</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D61" s="1">
         <v>1</v>
@@ -1918,13 +1943,13 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="1">
-        <v>1813</v>
+        <v>1798</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D62" s="1">
         <v>1</v>
@@ -1932,173 +1957,188 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="1">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="D63" s="1">
         <v>1</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>131</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="1">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D64" s="1">
+        <v>1</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="D65" s="1">
+        <v>0</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1">
+        <v>1817</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="1">
         <v>1818</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B68" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="40.5">
-      <c r="A68" s="1">
+      <c r="D68" s="1">
+        <v>1</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="40.5">
+      <c r="A69" s="1">
         <v>1863</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B69" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D68" s="1">
+      <c r="D69" s="1">
         <v>3</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="E69" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="F69" s="1" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="1">
-        <v>1930</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D69" s="1">
-        <v>0</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="D70" s="1">
         <v>0</v>
       </c>
-      <c r="E70" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>111</v>
+      <c r="E70" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1">
-        <v>2501</v>
+        <v>1931</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D71" s="1">
-        <v>1</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>43</v>
+        <v>0</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1">
-        <v>3496</v>
+        <v>2501</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>56</v>
+        <v>78</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D72" s="1">
+        <v>1</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1">
+        <v>3496</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="1">
         <v>3912</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="D73" s="1">
-        <v>0</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="40.5">
-      <c r="A74" s="1">
-        <v>4629</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="D74" s="1">
         <v>0</v>
@@ -2106,16 +2146,16 @@
       <c r="E74" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F74" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+    </row>
+    <row r="75" spans="1:6" ht="40.5">
       <c r="A75" s="1">
-        <v>9992</v>
+        <v>4629</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>137</v>
+        <v>63</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="D75" s="1">
         <v>0</v>
@@ -2123,27 +2163,30 @@
       <c r="E75" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="F75" s="1" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1">
+        <v>9992</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D76" s="1">
+        <v>0</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="1">
         <v>9993</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B77" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D76" s="1">
-        <v>1</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="27">
-      <c r="A77" s="1">
-        <v>9994</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="D77" s="1">
         <v>1</v>
@@ -2152,8 +2195,22 @@
         <v>43</v>
       </c>
     </row>
+    <row r="78" spans="1:6" ht="27">
+      <c r="A78" s="1">
+        <v>9994</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D78" s="1">
+        <v>1</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F61">
+  <autoFilter ref="A1:F62">
     <sortState ref="A2:F75">
       <sortCondition ref="A1:A59"/>
     </sortState>
@@ -2166,8 +2223,9 @@
   <hyperlinks>
     <hyperlink ref="B14" r:id="rId1" display="http://soj.me/problem.php?pid=1093"/>
     <hyperlink ref="B19" r:id="rId2" display="http://soj.me/problem.php?pid=1129"/>
+    <hyperlink ref="B27" r:id="rId3" display="http://soj.me/problem.php?pid=1155"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/sicily可供练习题目.xlsx
+++ b/sicily可供练习题目.xlsx
@@ -9,20 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4770" yWindow="60" windowWidth="19395" windowHeight="8280"/>
+    <workbookView xWindow="6630" yWindow="60" windowWidth="19395" windowHeight="8280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$64</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="161">
   <si>
     <t>题号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -614,6 +614,24 @@
   </si>
   <si>
     <t>fix-&gt;固定小数点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Substring</t>
+  </si>
+  <si>
+    <t>特殊情况为sub[i]+sub[j] &gt; sub[j]+sub[i]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3n+1数链问题</t>
+  </si>
+  <si>
+    <t>暴力算法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1009,11 +1027,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F78"/>
+  <dimension ref="A1:F80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B74" sqref="B74"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A78" sqref="A78:XFD78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1047,344 +1065,395 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" ht="27">
       <c r="A2" s="1">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="27">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>88</v>
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>1007</v>
+        <v>1014</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="27">
       <c r="A5" s="1">
-        <v>1014</v>
+        <v>1020</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>141</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>142</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="27">
+      <c r="E5" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>141</v>
+        <v>70</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="27">
       <c r="A7" s="1">
-        <v>1021</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>70</v>
+        <v>1027</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>71</v>
+        <v>144</v>
       </c>
       <c r="D7" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="27">
+      <c r="F7" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>1027</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>143</v>
+        <v>1029</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>145</v>
+      <c r="E8" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>1029</v>
+        <v>1035</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>104</v>
+        <v>125</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>1035</v>
+        <v>1052</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="D10" s="1">
         <v>2</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>126</v>
+      <c r="E10" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>1036</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>69</v>
+        <v>1093</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>38</v>
+        <v>148</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>1052</v>
+        <v>1097</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12" s="1">
-        <v>2</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>84</v>
+        <v>53</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>1087</v>
+        <v>1122</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
+        <v>59</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>1093</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>147</v>
+        <v>1144</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>148</v>
+        <v>29</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>1097</v>
+        <v>1145</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="27">
       <c r="A16" s="1">
-        <v>1099</v>
+        <v>1147</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>1100</v>
+        <v>1154</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="D17" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>1122</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>1155</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="27">
       <c r="A19" s="1">
-        <v>1129</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>149</v>
+        <v>1157</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>43</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="27">
       <c r="A20" s="1">
-        <v>1130</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>108</v>
+        <v>1198</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>156</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>109</v>
+        <v>158</v>
       </c>
       <c r="D20" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>110</v>
+        <v>43</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="40.5">
+        <v>1199</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
-        <v>1134</v>
+        <v>1209</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>105</v>
+        <v>72</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="D22" s="1">
-        <v>1</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>117</v>
+        <v>2</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
-        <v>1144</v>
+        <v>1218</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="D23" s="1">
-        <v>0</v>
-      </c>
-      <c r="E23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
-        <v>1145</v>
+        <v>1232</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>29</v>
@@ -1396,823 +1465,809 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="27">
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
-        <v>1147</v>
+        <v>1282</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>11</v>
+        <v>133</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>31</v>
+        <v>134</v>
       </c>
       <c r="D25" s="1">
-        <v>1</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>93</v>
+        <v>2</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1">
-        <v>1154</v>
+        <v>1286</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="1">
-        <v>0</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
-        <v>1155</v>
+        <v>1293</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="D27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="27">
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
-        <v>1157</v>
+        <v>1294</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1">
-        <v>1199</v>
+        <v>1302</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D29" s="1">
-        <v>2</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>58</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="27">
       <c r="A30" s="1">
-        <v>1209</v>
+        <v>1323</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="D30" s="1">
-        <v>2</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>43</v>
+        <v>3</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
-        <v>1218</v>
+        <v>1324</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="D31" s="1">
-        <v>2</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="27">
       <c r="A32" s="1">
-        <v>1232</v>
+        <v>1325</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D32" s="1">
         <v>0</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>43</v>
+        <v>131</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1">
-        <v>1282</v>
+        <v>1341</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>133</v>
+        <v>47</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>134</v>
+        <v>48</v>
       </c>
       <c r="D33" s="1">
-        <v>2</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>43</v>
+        <v>0</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1">
-        <v>1286</v>
+        <v>1350</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="27">
       <c r="A35" s="1">
-        <v>1294</v>
+        <v>1381</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>104</v>
+        <v>85</v>
+      </c>
+      <c r="D35" s="1">
+        <v>2</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1">
-        <v>1298</v>
+        <v>1388</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D36" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1">
-        <v>1299</v>
+        <v>1482</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1">
-        <v>1302</v>
+        <v>1484</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="27">
+        <v>97</v>
+      </c>
+      <c r="D38" s="1">
+        <v>4</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1">
-        <v>1323</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>118</v>
+        <v>1485</v>
+      </c>
+      <c r="B39" t="s">
+        <v>99</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="D39" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>121</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1">
-        <v>1324</v>
+        <v>1510</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D40" s="1">
         <v>0</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="27">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1">
-        <v>1325</v>
+        <v>1608</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="D41" s="1">
         <v>0</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1">
-        <v>1341</v>
+        <v>1624</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D42" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1">
-        <v>1342</v>
+        <v>1639</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" s="1">
+        <v>2</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1">
-        <v>1350</v>
+        <v>1692</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="27">
+    <row r="45" spans="1:6">
       <c r="A45" s="1">
-        <v>1381</v>
+        <v>1694</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D45" s="1">
-        <v>2</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>101</v>
+        <v>54</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1">
-        <v>1388</v>
+        <v>1747</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D46" s="1">
-        <v>0</v>
-      </c>
-      <c r="E46" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E46" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1">
-        <v>1482</v>
+        <v>1753</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="D47" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1">
-        <v>1484</v>
+        <v>1813</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>97</v>
+        <v>20</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="D48" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:6">
       <c r="A49" s="1">
-        <v>1485</v>
-      </c>
-      <c r="B49" t="s">
-        <v>99</v>
+        <v>1814</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="D49" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1">
-        <v>1500</v>
+        <v>1815</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D50" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1">
-        <v>1510</v>
+        <v>1817</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D51" s="1">
-        <v>0</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>27</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1">
-        <v>1561</v>
+        <v>1818</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D52" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="E52" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="40.5">
       <c r="A53" s="1">
-        <v>1608</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>112</v>
+        <v>1863</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="D53" s="1">
-        <v>0</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>3</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1">
-        <v>1624</v>
+        <v>1930</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>60</v>
+        <v>44</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1">
-        <v>1639</v>
+        <v>1931</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="D55" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>74</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1">
-        <v>1692</v>
+        <v>2501</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>51</v>
+        <v>78</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D56" s="1">
+        <v>1</v>
       </c>
       <c r="E56" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1">
+        <v>3496</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E57" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="1">
-        <v>1694</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:6">
       <c r="A58" s="1">
-        <v>1747</v>
+        <v>3912</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>62</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="40.5">
       <c r="A59" s="1">
-        <v>1753</v>
+        <v>4629</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>136</v>
+        <v>63</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="D59" s="1">
         <v>0</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="E59" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1">
-        <v>1767</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>9992</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1">
-        <v>1795</v>
+        <v>9993</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="D61" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="E61" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="27">
       <c r="A62" s="1">
-        <v>1798</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>33</v>
+        <v>9994</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="D62" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="E62" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1">
-        <v>1813</v>
+        <v>1000</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="D63" s="1">
-        <v>1</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1">
-        <v>1814</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>24</v>
+        <v>1129</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>149</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="D64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="40.5">
       <c r="A65" s="1">
-        <v>1815</v>
+        <v>1134</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="D65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1">
-        <v>1816</v>
+        <v>1130</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>26</v>
+        <v>108</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D66" s="1">
+        <v>3</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1">
-        <v>1817</v>
+        <v>1036</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>56</v>
+        <v>69</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D67" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1">
-        <v>1818</v>
+        <v>1087</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="D68" s="1">
         <v>1</v>
       </c>
-      <c r="E68" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="40.5">
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1">
-        <v>1863</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D69" s="1">
-        <v>3</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>140</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1">
-        <v>1930</v>
+        <v>1100</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="D70" s="1">
-        <v>0</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>46</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1">
-        <v>1931</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D71" s="1">
-        <v>0</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>111</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1">
-        <v>2501</v>
+        <v>1298</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="D72" s="1">
         <v>1</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1">
-        <v>3496</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>56</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1">
-        <v>3912</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D74" s="1">
-        <v>0</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="40.5">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1">
-        <v>4629</v>
+        <v>1500</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="D75" s="1">
-        <v>0</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>114</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1">
-        <v>9992</v>
+        <v>1561</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>137</v>
+        <v>17</v>
       </c>
       <c r="D76" s="1">
-        <v>0</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1">
-        <v>9993</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D77" s="1">
-        <v>1</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="27">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1">
-        <v>9994</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>139</v>
+        <v>1795</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D78" s="1">
         <v>1</v>
       </c>
-      <c r="E78" s="3" t="s">
-        <v>43</v>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="1">
+        <v>1798</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D79" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="1">
+        <v>1816</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F62">
-    <sortState ref="A2:F75">
-      <sortCondition ref="A1:A59"/>
+  <autoFilter ref="A1:F64">
+    <sortState ref="A2:F80">
+      <sortCondition ref="E1:E64"/>
     </sortState>
   </autoFilter>
   <sortState ref="A2:F70">
@@ -2221,11 +2276,13 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1" display="http://soj.me/problem.php?pid=1093"/>
-    <hyperlink ref="B19" r:id="rId2" display="http://soj.me/problem.php?pid=1129"/>
-    <hyperlink ref="B27" r:id="rId3" display="http://soj.me/problem.php?pid=1155"/>
+    <hyperlink ref="B11" r:id="rId1" display="http://soj.me/problem.php?pid=1093"/>
+    <hyperlink ref="B64" r:id="rId2" display="http://soj.me/problem.php?pid=1129"/>
+    <hyperlink ref="B18" r:id="rId3" display="http://soj.me/problem.php?pid=1155"/>
+    <hyperlink ref="B20" r:id="rId4" display="http://soj.me/problem.php?pid=1198"/>
+    <hyperlink ref="B27" r:id="rId5" display="http://soj.me/problem.php?pid=1293"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/sicily可供练习题目.xlsx
+++ b/sicily可供练习题目.xlsx
@@ -9,20 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6630" yWindow="60" windowWidth="19395" windowHeight="8280"/>
+    <workbookView xWindow="10350" yWindow="60" windowWidth="19395" windowHeight="8280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$66</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="169">
   <si>
     <t>题号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -632,6 +632,35 @@
   </si>
   <si>
     <t>暴力算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sorting Algorithm</t>
+  </si>
+  <si>
+    <t>nlogn算法 也可以用STL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开心的金明</t>
+  </si>
+  <si>
+    <t>01背包问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accepted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rounders</t>
+  </si>
+  <si>
+    <t>数字进位处理。逐位四舍五入。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意所有硬币一开始是在一个圆上面。那么，当n&gt;3的时候，如果n为偶数，后手和先手对称拿硬币，后手必胜。如果n为奇数，一开始和先手凑出三个硬币，转化为n为偶数的情况，同样为后手必胜。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1027,11 +1056,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F80"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A78" sqref="A78:XFD78"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1065,395 +1094,350 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="27">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="27">
+      <c r="A3" s="1">
         <v>1001</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>1007</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
+        <v>1007</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
         <v>1014</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="27">
-      <c r="A5" s="1">
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="27">
+      <c r="A6" s="1">
         <v>1020</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
         <v>1021</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D7" s="1">
         <v>2</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="27">
-      <c r="A7" s="1">
+      <c r="E7" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="27">
+      <c r="A8" s="1">
         <v>1027</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
-        <v>1029</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>104</v>
+      <c r="E8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="D9" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>1052</v>
+        <v>1035</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="D10" s="1">
         <v>2</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>84</v>
+      <c r="E10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>1093</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>147</v>
+        <v>1036</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>148</v>
+        <v>38</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>1097</v>
+        <v>1052</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>82</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="67.5">
       <c r="A13" s="1">
-        <v>1122</v>
+        <v>1087</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>56</v>
+        <v>14</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>1144</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>5</v>
+        <v>1093</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>1145</v>
+        <v>1097</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="27">
+        <v>53</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>1147</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>93</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>1154</v>
+        <v>1100</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="D17" s="1">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>46</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>1155</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="27">
+        <v>1122</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>1157</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>10</v>
+        <v>1129</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>149</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="27">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
-        <v>1198</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>156</v>
+        <v>1130</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>158</v>
+        <v>109</v>
       </c>
       <c r="D20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>157</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
-        <v>1199</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D21" s="1">
-        <v>2</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="40.5">
       <c r="A22" s="1">
-        <v>1209</v>
+        <v>1134</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="D22" s="1">
-        <v>2</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>43</v>
+        <v>1</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
-        <v>1218</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>64</v>
+        <v>1395</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>166</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>65</v>
+        <v>167</v>
       </c>
       <c r="D23" s="1">
-        <v>2</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>43</v>
+        <v>1</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
-        <v>1232</v>
+        <v>1144</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>29</v>
@@ -1467,390 +1451,423 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1">
-        <v>1282</v>
+        <v>1145</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>133</v>
+        <v>6</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="D25" s="1">
-        <v>2</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="27">
       <c r="A26" s="1">
-        <v>1286</v>
+        <v>1147</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>43</v>
+        <v>11</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
-        <v>1293</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>159</v>
+        <v>1154</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>160</v>
+        <v>42</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
-        <v>1294</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>106</v>
+        <v>1155</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>151</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>107</v>
+        <v>152</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>43</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="27">
       <c r="A29" s="1">
-        <v>1302</v>
+        <v>1157</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="27">
       <c r="A30" s="1">
-        <v>1323</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>118</v>
+        <v>1198</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>156</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="D30" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
-        <v>1324</v>
+        <v>1199</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="D31" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="27">
+        <v>128</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
-        <v>1325</v>
+        <v>1209</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="D32" s="1">
-        <v>0</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>132</v>
+        <v>2</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1">
-        <v>1341</v>
+        <v>1218</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D33" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1">
-        <v>1350</v>
+        <v>1232</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="27">
+        <v>7</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
-        <v>1381</v>
+        <v>1282</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>68</v>
+        <v>133</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>85</v>
+        <v>134</v>
       </c>
       <c r="D35" s="1">
         <v>2</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>101</v>
+      <c r="E35" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1">
-        <v>1388</v>
+        <v>1286</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D36" s="1">
-        <v>0</v>
-      </c>
-      <c r="E36" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1">
-        <v>1482</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>98</v>
+        <v>1293</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="D37" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1">
-        <v>1484</v>
+        <v>1294</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D38" s="1">
-        <v>4</v>
+        <v>106</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1">
-        <v>1485</v>
-      </c>
-      <c r="B39" t="s">
-        <v>99</v>
+        <v>1298</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D39" s="1">
-        <v>2</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1">
-        <v>1510</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D40" s="1">
-        <v>0</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>50</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1">
-        <v>1608</v>
+        <v>1302</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D41" s="1">
-        <v>0</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>113</v>
+        <v>58</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1">
-        <v>1624</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>1306</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="27">
       <c r="A43" s="1">
-        <v>1639</v>
+        <v>1323</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="D43" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>92</v>
+        <v>120</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1">
-        <v>1692</v>
+        <v>1324</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>9</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="27">
       <c r="A45" s="1">
-        <v>1694</v>
+        <v>1325</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>43</v>
+        <v>22</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1">
-        <v>1747</v>
+        <v>1341</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1">
-        <v>1753</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>136</v>
+        <v>1342</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>164</v>
       </c>
       <c r="D47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>131</v>
+        <v>165</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1">
-        <v>1813</v>
+        <v>1350</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D48" s="1">
-        <v>1</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>57</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="27">
       <c r="A49" s="1">
-        <v>1814</v>
+        <v>1381</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="D49" s="1">
-        <v>1</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>131</v>
+        <v>2</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1">
-        <v>1815</v>
+        <v>1388</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="D50" s="1">
         <v>0</v>
@@ -1858,416 +1875,477 @@
       <c r="E50" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F50" s="1" t="s">
-        <v>155</v>
-      </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1">
-        <v>1817</v>
+        <v>1482</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>56</v>
+        <v>98</v>
+      </c>
+      <c r="D51" s="1">
+        <v>2</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1">
-        <v>1818</v>
+        <v>1484</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="D52" s="1">
-        <v>1</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="40.5">
+        <v>4</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1">
-        <v>1863</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>75</v>
+        <v>1485</v>
+      </c>
+      <c r="B53" t="s">
+        <v>99</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="D53" s="1">
-        <v>3</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>140</v>
+        <v>2</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1">
-        <v>1930</v>
+        <v>1500</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D54" s="1">
-        <v>0</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>46</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1">
-        <v>1931</v>
+        <v>1510</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="D55" s="1">
         <v>0</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>111</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1">
-        <v>2501</v>
+        <v>1561</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="D56" s="1">
         <v>1</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1">
-        <v>3496</v>
+        <v>1608</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>56</v>
+        <v>112</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1">
-        <v>3912</v>
+        <v>1624</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D58" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="40.5">
+    <row r="59" spans="1:6">
       <c r="A59" s="1">
-        <v>4629</v>
+        <v>1639</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="D59" s="1">
-        <v>0</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>114</v>
+        <v>2</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1">
-        <v>9992</v>
+        <v>1692</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D60" s="1">
-        <v>0</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1">
-        <v>9993</v>
+        <v>1694</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D61" s="1">
-        <v>1</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="27">
+        <v>54</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1">
-        <v>9994</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D62" s="1">
-        <v>1</v>
-      </c>
-      <c r="E62" s="3" t="s">
+        <v>1747</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E62" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1">
-        <v>1000</v>
+        <v>1753</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="D63" s="1">
         <v>0</v>
       </c>
-      <c r="E63" s="3" t="s">
-        <v>81</v>
+      <c r="E63" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1">
-        <v>1129</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D64" s="1">
-        <v>0</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="40.5">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1">
-        <v>1134</v>
+        <v>1795</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>105</v>
+        <v>12</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D65" s="1">
         <v>1</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1">
-        <v>1130</v>
+        <v>1798</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="D66" s="1">
-        <v>3</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>110</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1">
-        <v>1036</v>
+        <v>1813</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D67" s="1">
         <v>1</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1">
-        <v>1087</v>
+        <v>1814</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>34</v>
+        <v>135</v>
       </c>
       <c r="D68" s="1">
         <v>1</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1">
-        <v>1099</v>
+        <v>1815</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D69" s="1">
+        <v>0</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1">
-        <v>1100</v>
+        <v>1816</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D70" s="1">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1">
-        <v>1133</v>
+        <v>1817</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1">
-        <v>1298</v>
+        <v>1818</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D72" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:6">
+      <c r="E72" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="40.5">
       <c r="A73" s="1">
-        <v>1299</v>
+        <v>1863</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D73" s="1">
+        <v>3</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1">
-        <v>1342</v>
+        <v>1930</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D74" s="1">
+        <v>0</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1">
-        <v>1500</v>
+        <v>1931</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="D75" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1">
-        <v>1561</v>
+        <v>2501</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>17</v>
+        <v>78</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="D76" s="1">
         <v>1</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1">
-        <v>1767</v>
+        <v>3496</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1">
-        <v>1795</v>
+        <v>3912</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="D78" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="40.5">
       <c r="A79" s="1">
-        <v>1798</v>
+        <v>4629</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="D79" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1">
-        <v>1816</v>
+        <v>9992</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>26</v>
+        <v>137</v>
+      </c>
+      <c r="D80" s="1">
+        <v>0</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="1">
+        <v>9993</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D81" s="1">
+        <v>1</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="27">
+      <c r="A82" s="1">
+        <v>9994</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D82" s="1">
+        <v>1</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F64">
+  <autoFilter ref="A1:F66">
     <sortState ref="A2:F80">
-      <sortCondition ref="E1:E64"/>
+      <sortCondition ref="A1:A64"/>
     </sortState>
   </autoFilter>
   <sortState ref="A2:F70">
@@ -2276,13 +2354,16 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1" display="http://soj.me/problem.php?pid=1093"/>
-    <hyperlink ref="B64" r:id="rId2" display="http://soj.me/problem.php?pid=1129"/>
-    <hyperlink ref="B18" r:id="rId3" display="http://soj.me/problem.php?pid=1155"/>
-    <hyperlink ref="B20" r:id="rId4" display="http://soj.me/problem.php?pid=1198"/>
-    <hyperlink ref="B27" r:id="rId5" display="http://soj.me/problem.php?pid=1293"/>
+    <hyperlink ref="B14" r:id="rId1" display="http://soj.me/problem.php?pid=1093"/>
+    <hyperlink ref="B19" r:id="rId2" display="http://soj.me/problem.php?pid=1129"/>
+    <hyperlink ref="B28" r:id="rId3" display="http://soj.me/problem.php?pid=1155"/>
+    <hyperlink ref="B30" r:id="rId4" display="http://soj.me/problem.php?pid=1198"/>
+    <hyperlink ref="B37" r:id="rId5" display="http://soj.me/problem.php?pid=1293"/>
+    <hyperlink ref="B42" r:id="rId6" display="http://soj.me/problem.php?pid=1306"/>
+    <hyperlink ref="B47" r:id="rId7" display="http://soj.me/problem.php?pid=1342"/>
+    <hyperlink ref="B23" r:id="rId8" display="http://soj.me/problem.php?pid=1395"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
--- a/sicily可供练习题目.xlsx
+++ b/sicily可供练习题目.xlsx
@@ -9,20 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10350" yWindow="60" windowWidth="19395" windowHeight="8280"/>
+    <workbookView xWindow="13140" yWindow="60" windowWidth="19395" windowHeight="8280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$68</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="182">
   <si>
     <t>题号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -662,13 +662,57 @@
   <si>
     <t>注意所有硬币一开始是在一个圆上面。那么，当n&gt;3的时候，如果n为偶数，后手和先手对称拿硬币，后手必胜。如果n为奇数，一开始和先手凑出三个硬币，转化为n为偶数的情况，同样为后手必胜。</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2进制高精度算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意特殊的和为0的时候</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A + B</t>
+  </si>
+  <si>
+    <t>高精度运算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以从1201改过来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二进制转十进制</t>
+  </si>
+  <si>
+    <t>直接提交主函数就好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>编一个基于对象的程序，求长方柱的体积</t>
+  </si>
+  <si>
+    <t>合法三角形</t>
+  </si>
+  <si>
+    <t>Linked Queue</t>
+  </si>
+  <si>
+    <t>批改作业</t>
+  </si>
+  <si>
+    <t>计算组合数</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -697,6 +741,15 @@
       <color theme="10"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF005DA9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -732,14 +785,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -748,8 +798,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1056,20 +1121,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F82"/>
+  <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E91" sqref="E91:E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="34.375" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
@@ -1078,7 +1143,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1098,13 +1163,13 @@
       <c r="A2" s="1">
         <v>1000</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>80</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1112,7 +1177,7 @@
       <c r="A3" s="1">
         <v>1001</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>88</v>
       </c>
       <c r="D3" s="1">
@@ -1129,7 +1194,7 @@
       <c r="A4" s="1">
         <v>1007</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1146,7 +1211,7 @@
       <c r="A5" s="1">
         <v>1014</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1163,7 +1228,7 @@
       <c r="A6" s="1">
         <v>1020</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>141</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1172,7 +1237,7 @@
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1180,7 +1245,7 @@
       <c r="A7" s="1">
         <v>1021</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>70</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1189,7 +1254,7 @@
       <c r="D7" s="1">
         <v>2</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1197,7 +1262,7 @@
       <c r="A8" s="1">
         <v>1027</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="5" t="s">
         <v>143</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1206,7 +1271,7 @@
       <c r="D8" s="1">
         <v>0</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -1217,7 +1282,7 @@
       <c r="A9" s="1">
         <v>1029</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="4" t="s">
         <v>102</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1234,7 +1299,7 @@
       <c r="A10" s="1">
         <v>1035</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="4" t="s">
         <v>123</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1254,7 +1319,7 @@
       <c r="A11" s="1">
         <v>1036</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="4" t="s">
         <v>69</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1268,7 +1333,7 @@
       <c r="A12" s="1">
         <v>1052</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="4" t="s">
         <v>82</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1277,7 +1342,7 @@
       <c r="D12" s="1">
         <v>2</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1285,7 +1350,7 @@
       <c r="A13" s="1">
         <v>1087</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1294,7 +1359,7 @@
       <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -1305,7 +1370,7 @@
       <c r="A14" s="1">
         <v>1093</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="6" t="s">
         <v>147</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1314,7 +1379,7 @@
       <c r="D14" s="1">
         <v>1</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1322,10 +1387,10 @@
       <c r="A15" s="1">
         <v>1097</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1338,7 +1403,7 @@
       <c r="A17" s="1">
         <v>1100</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="4" t="s">
         <v>95</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -1352,10 +1417,10 @@
       <c r="A18" s="1">
         <v>1122</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="3" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1363,7 +1428,7 @@
       <c r="A19" s="1">
         <v>1129</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="6" t="s">
         <v>149</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -1380,7 +1445,7 @@
       <c r="A20" s="1">
         <v>1130</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1402,7 +1467,7 @@
       <c r="A22" s="1">
         <v>1134</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="4" t="s">
         <v>105</v>
       </c>
       <c r="D22" s="1">
@@ -1417,27 +1482,27 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
-        <v>1395</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>166</v>
+        <v>1144</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>167</v>
+        <v>29</v>
       </c>
       <c r="D23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>116</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
-        <v>1144</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>5</v>
+        <v>1145</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>29</v>
@@ -1449,145 +1514,148 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" ht="27">
       <c r="A25" s="1">
-        <v>1145</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>6</v>
+        <v>1147</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="27">
+      <c r="F25" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
-        <v>1147</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>11</v>
+        <v>1154</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
-        <v>1154</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>23</v>
+        <v>1155</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>151</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>42</v>
+        <v>152</v>
       </c>
       <c r="D27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>43</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="27">
       <c r="A28" s="1">
-        <v>1155</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>151</v>
+        <v>1157</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="D28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>153</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="27">
       <c r="A29" s="1">
-        <v>1157</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>10</v>
+        <v>1198</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>156</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="D29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="27">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
-        <v>1198</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>156</v>
+        <v>1199</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="D30" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
-        <v>1199</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>122</v>
+        <v>1201</v>
+      </c>
+      <c r="B31" s="6">
+        <v>1000001</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>127</v>
+        <v>169</v>
       </c>
       <c r="D31" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>128</v>
+        <v>43</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>129</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>1209</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="4" t="s">
         <v>72</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -1596,7 +1664,7 @@
       <c r="D32" s="1">
         <v>2</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="2" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1604,7 +1672,7 @@
       <c r="A33" s="1">
         <v>1218</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="4" t="s">
         <v>64</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -1613,7 +1681,7 @@
       <c r="D33" s="1">
         <v>2</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="2" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1621,7 +1689,7 @@
       <c r="A34" s="1">
         <v>1232</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -1638,7 +1706,7 @@
       <c r="A35" s="1">
         <v>1282</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="4" t="s">
         <v>133</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -1647,7 +1715,7 @@
       <c r="D35" s="1">
         <v>2</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="3" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1655,10 +1723,10 @@
       <c r="A36" s="1">
         <v>1286</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="3" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1666,7 +1734,7 @@
       <c r="A37" s="1">
         <v>1293</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="6" t="s">
         <v>159</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -1683,7 +1751,7 @@
       <c r="A38" s="1">
         <v>1294</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="4" t="s">
         <v>106</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -1697,7 +1765,7 @@
       <c r="A39" s="1">
         <v>1298</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -1716,10 +1784,10 @@
       <c r="A41" s="1">
         <v>1302</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="3" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1727,7 +1795,7 @@
       <c r="A42" s="1">
         <v>1306</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="6" t="s">
         <v>161</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -1741,7 +1809,7 @@
       <c r="A43" s="1">
         <v>1323</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="4" t="s">
         <v>118</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -1761,7 +1829,7 @@
       <c r="A44" s="1">
         <v>1324</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -1778,7 +1846,7 @@
       <c r="A45" s="1">
         <v>1325</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -1798,7 +1866,7 @@
       <c r="A46" s="1">
         <v>1341</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -1807,7 +1875,7 @@
       <c r="D46" s="1">
         <v>0</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E46" s="2" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1815,7 +1883,7 @@
       <c r="A47" s="1">
         <v>1342</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="6" t="s">
         <v>163</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -1832,10 +1900,10 @@
       <c r="A48" s="1">
         <v>1350</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E48" s="3" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1843,7 +1911,7 @@
       <c r="A49" s="1">
         <v>1381</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="4" t="s">
         <v>68</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -1852,7 +1920,7 @@
       <c r="D49" s="1">
         <v>2</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E49" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F49" s="1" t="s">
@@ -1863,7 +1931,7 @@
       <c r="A50" s="1">
         <v>1388</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -1878,47 +1946,47 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1">
-        <v>1482</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>98</v>
+        <v>1395</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="D51" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1">
-        <v>1484</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>97</v>
+        <v>1482</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="D52" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>43</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1">
-        <v>1485</v>
-      </c>
-      <c r="B53" t="s">
-        <v>99</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>100</v>
+        <v>1484</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="D53" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>43</v>
@@ -1926,163 +1994,166 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1">
-        <v>1500</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>16</v>
+        <v>1485</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>99</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="D54" s="1">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1">
-        <v>1510</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>15</v>
+        <v>1500</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D55" s="1">
-        <v>0</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1">
-        <v>1561</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>17</v>
+        <v>1510</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D56" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1">
-        <v>1608</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>112</v>
+        <v>1561</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="D57" s="1">
-        <v>0</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>113</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1">
-        <v>1624</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>43</v>
+        <v>1608</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1">
-        <v>1639</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D59" s="1">
-        <v>2</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>92</v>
+        <v>1624</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1">
-        <v>1692</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>56</v>
+        <v>1639</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D60" s="1">
+        <v>2</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1">
-        <v>1694</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>43</v>
+        <v>1692</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1">
-        <v>1747</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E62" s="4" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E62" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1">
-        <v>1753</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D63" s="1">
-        <v>0</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>131</v>
+        <v>1747</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1">
-        <v>1767</v>
+        <v>1753</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1">
-        <v>1795</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D65" s="1">
-        <v>1</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1">
-        <v>1798</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>13</v>
+        <v>1795</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D66" s="1">
         <v>1</v>
@@ -2090,262 +2161,420 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1">
-        <v>1813</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>20</v>
+        <v>1798</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D67" s="1">
         <v>1</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1">
-        <v>1814</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>24</v>
+        <v>1813</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="D68" s="1">
         <v>1</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>131</v>
+        <v>43</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1">
-        <v>1815</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>25</v>
+        <v>1814</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="D69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1">
-        <v>1816</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>26</v>
+        <v>1815</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1">
-        <v>1817</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>56</v>
+        <v>1816</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1">
+        <v>1817</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="1">
         <v>1818</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B73" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D73" s="1">
         <v>1</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F72" s="1" t="s">
+      <c r="E73" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="40.5">
-      <c r="A73" s="1">
+    <row r="74" spans="1:6" ht="40.5">
+      <c r="A74" s="1">
         <v>1863</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B74" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D73" s="1">
+      <c r="D74" s="1">
         <v>3</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="E74" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="F74" s="1" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="1">
-        <v>1930</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D74" s="1">
-        <v>0</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1">
-        <v>1931</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>73</v>
+        <v>1930</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="D75" s="1">
         <v>0</v>
       </c>
-      <c r="E75" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>111</v>
+      <c r="E75" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1">
-        <v>2501</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>78</v>
+        <v>1931</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D76" s="1">
-        <v>1</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>43</v>
+        <v>0</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1">
-        <v>3496</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>61</v>
+        <v>2501</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D77" s="1">
+        <v>1</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>56</v>
+        <v>43</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1">
-        <v>3912</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>66</v>
+        <v>3496</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="D78" s="1">
         <v>0</v>
       </c>
-      <c r="E78" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="40.5">
+      <c r="E78" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1">
-        <v>4629</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>67</v>
+        <v>3718</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>180</v>
       </c>
       <c r="D79" s="1">
         <v>0</v>
       </c>
-      <c r="E79" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>114</v>
+      <c r="E79" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1">
+        <v>3912</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D80" s="1">
+        <v>0</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1">
+        <v>3980</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D81" s="1">
+        <v>0</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1">
+        <v>4187</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D82" s="1">
+        <v>0</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="1">
+        <v>4312</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D83" s="1">
+        <v>0</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="40.5">
+      <c r="A84" s="1">
+        <v>4629</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D84" s="1">
+        <v>0</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="1">
+        <v>4950</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D85" s="1">
+        <v>0</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="1">
+        <v>6864</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D86" s="1">
+        <v>0</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="1">
         <v>9992</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B87" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D80" s="1">
-        <v>0</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" s="1">
+      <c r="D87" s="1">
+        <v>0</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="1">
         <v>9993</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B88" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D81" s="1">
+      <c r="D88" s="1">
         <v>1</v>
       </c>
-      <c r="E81" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="27">
-      <c r="A82" s="1">
+      <c r="E88" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="27">
+      <c r="A89" s="1">
         <v>9994</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B89" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D82" s="1">
+      <c r="D89" s="1">
         <v>1</v>
       </c>
-      <c r="E82" s="3" t="s">
+      <c r="E89" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="1">
+        <v>10709</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D90" s="1">
+        <v>0</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="1">
+        <v>10710</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D91" s="1">
+        <v>0</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="1">
+        <v>3836</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D92" s="1">
+        <v>0</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F66">
-    <sortState ref="A2:F80">
-      <sortCondition ref="A1:A64"/>
+  <autoFilter ref="A1:F68">
+    <sortState ref="A2:F91">
+      <sortCondition ref="A1:A68"/>
     </sortState>
   </autoFilter>
   <sortState ref="A2:F70">
@@ -2356,14 +2585,23 @@
   <hyperlinks>
     <hyperlink ref="B14" r:id="rId1" display="http://soj.me/problem.php?pid=1093"/>
     <hyperlink ref="B19" r:id="rId2" display="http://soj.me/problem.php?pid=1129"/>
-    <hyperlink ref="B28" r:id="rId3" display="http://soj.me/problem.php?pid=1155"/>
-    <hyperlink ref="B30" r:id="rId4" display="http://soj.me/problem.php?pid=1198"/>
+    <hyperlink ref="B27" r:id="rId3" display="http://soj.me/problem.php?pid=1155"/>
+    <hyperlink ref="B29" r:id="rId4" display="http://soj.me/problem.php?pid=1198"/>
     <hyperlink ref="B37" r:id="rId5" display="http://soj.me/problem.php?pid=1293"/>
     <hyperlink ref="B42" r:id="rId6" display="http://soj.me/problem.php?pid=1306"/>
     <hyperlink ref="B47" r:id="rId7" display="http://soj.me/problem.php?pid=1342"/>
-    <hyperlink ref="B23" r:id="rId8" display="http://soj.me/problem.php?pid=1395"/>
+    <hyperlink ref="B51" r:id="rId8" display="http://soj.me/problem.php?pid=1395"/>
+    <hyperlink ref="B31" r:id="rId9" display="http://soj.me/problem.php?pid=1201"/>
+    <hyperlink ref="B83" r:id="rId10" display="http://soj.me/problem.php?pid=4312"/>
+    <hyperlink ref="B81" r:id="rId11" display="http://soj.me/problem.php?pid=3980"/>
+    <hyperlink ref="B90" r:id="rId12" display="http://soj.me/problem.php?pid=10709"/>
+    <hyperlink ref="B91" r:id="rId13" display="http://soj.me/problem.php?pid=10710"/>
+    <hyperlink ref="B85" r:id="rId14" display="http://soj.me/problem.php?pid=4950"/>
+    <hyperlink ref="B82" r:id="rId15" display="http://soj.me/problem.php?pid=4187"/>
+    <hyperlink ref="B86" r:id="rId16" display="http://soj.me/problem.php?pid=6864"/>
+    <hyperlink ref="B79" r:id="rId17" display="http://soj.me/problem.php?pid=3718"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
--- a/sicily可供练习题目.xlsx
+++ b/sicily可供练习题目.xlsx
@@ -9,20 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13140" yWindow="60" windowWidth="19395" windowHeight="8280"/>
+    <workbookView xWindow="16860" yWindow="60" windowWidth="19395" windowHeight="8280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$59</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="185">
   <si>
     <t>题号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,27 +66,12 @@
     <t>谁拿了最多奖学金</t>
   </si>
   <si>
-    <t>Table tennis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alice and Bob</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Funny game</t>
   </si>
   <si>
     <t>Mispelling</t>
   </si>
   <si>
-    <t>Prime Gap</t>
-  </si>
-  <si>
-    <t>PRIME Number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>To and Fro</t>
   </si>
   <si>
@@ -133,23 +118,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>几何体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>策略</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>简单策略</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>字符串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>求小于给定整数的最大素数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -377,308 +350,300 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>守望者的逃离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖学金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hanoi双塔问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高精度运算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于进位的考虑，要注意优先级的问题；长度的设定；字符串的操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rabbit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高精度数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accepted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积木分发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级机密</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RSA算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精度进位处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wrong answer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>留意会不会有堆栈的上溢和下溢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Digit Counting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accepted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两种输出：文件末尾有换行和没有换行；一般情况直接用前者就可以了，这个符合谷歌风格。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>细节决定成败！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accpeted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果通过了大多数测试而小部分测试超时的话，可以考虑是不是数据类型太长而导致了时间的延长。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>switch text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accepted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果用了file输入输出函数，一定要换成stdin函数检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>GCD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已知公约数，求满足条件的公因数的个数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>守望者的逃离</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖学金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hanoi双塔问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>DNA matching</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串操作、判断条件的设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accepted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去重复，注意有没有特殊情况漏掉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧拉函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accepted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意找因子的时候要把根号n单独考虑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费马小定理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accepted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意generator数与原数不会相差超过位数的10倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Computer Game</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KMP算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把所有的日子都算出来就是了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bubble sort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sorting student on grades</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Computing the weekly hours for each employee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果要只在相邻数据组之间判断要空行，可以在程序头加上判断条件，如果是头数据组，则不先输出空行，否则输出空行。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Big Intenger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考虑如何把输入的x转成int序列 然后高精度除法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MJ, Nowhere to Hide</t>
+  </si>
+  <si>
+    <t>字符串比较和排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以通过STL里面的algorithm的sort算法来简化比较。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accepted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Air Express</t>
+  </si>
+  <si>
+    <t>分类优化计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISBN</t>
+  </si>
+  <si>
+    <t>字符串处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can I Post the lette</t>
+  </si>
+  <si>
+    <t>沃舍尔算法/深度搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意每次都要重新初始化矩阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用&lt;map&gt;来解决搜索过慢的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fix-&gt;固定小数点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Substring</t>
+  </si>
+  <si>
+    <t>特殊情况为sub[i]+sub[j] &gt; sub[j]+sub[i]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3n+1数链问题</t>
+  </si>
+  <si>
+    <t>暴力算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sorting Algorithm</t>
+  </si>
+  <si>
+    <t>nlogn算法 也可以用STL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开心的金明</t>
+  </si>
+  <si>
+    <t>01背包问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accepted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rounders</t>
+  </si>
+  <si>
+    <t>数字进位处理。逐位四舍五入。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意所有硬币一开始是在一个圆上面。那么，当n&gt;3的时候，如果n为偶数，后手和先手对称拿硬币，后手必胜。如果n为奇数，一开始和先手凑出三个硬币，转化为n为偶数的情况，同样为后手必胜。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2进制高精度算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意特殊的和为0的时候</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A + B</t>
   </si>
   <si>
     <t>高精度运算</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>对于进位的考虑，要注意优先级的问题；长度的设定；字符串的操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rabbit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高精度数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>accepted</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>积木分发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级机密</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RSA算法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精度进位处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wrong answer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>留意会不会有堆栈的上溢和下溢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Digit Counting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>accepted</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>两种输出：文件末尾有换行和没有换行；一般情况直接用前者就可以了，这个符合谷歌风格。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>细节决定成败！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>accpeted</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果通过了大多数测试而小部分测试超时的话，可以考虑是不是数据类型太长而导致了时间的延长。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>switch text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符串操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>accepted</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果用了file输入输出函数，一定要换成stdin函数检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GCD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DNA matching</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符串操作、判断条件的设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>accepted</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>去重复，注意有没有特殊情况漏掉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欧拉函数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>accepted</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注意找因子的时候要把根号n单独考虑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>费马小定理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>accepted</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注意generator数与原数不会相差超过位数的10倍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Computer Game</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KMP算法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>把所有的日子都算出来就是了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bubble sort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sorting student on grades</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Computing the weekly hours for each employee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果要只在相邻数据组之间判断要空行，可以在程序头加上判断条件，如果是头数据组，则不先输出空行，否则输出空行。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Big Intenger</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>考虑如何把输入的x转成int序列 然后高精度除法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MJ, Nowhere to Hide</t>
-  </si>
-  <si>
-    <t>字符串比较和排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以通过STL里面的algorithm的sort算法来简化比较。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>accepted</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Air Express</t>
-  </si>
-  <si>
-    <t>分类优化计算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ISBN</t>
-  </si>
-  <si>
-    <t>字符串处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Can I Post the lette</t>
-  </si>
-  <si>
-    <t>沃舍尔算法/深度搜索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注意每次都要重新初始化矩阵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用&lt;map&gt;来解决搜索过慢的问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fix-&gt;固定小数点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Substring</t>
-  </si>
-  <si>
-    <t>特殊情况为sub[i]+sub[j] &gt; sub[j]+sub[i]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符串操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3n+1数链问题</t>
-  </si>
-  <si>
-    <t>暴力算法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sorting Algorithm</t>
-  </si>
-  <si>
-    <t>nlogn算法 也可以用STL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开心的金明</t>
-  </si>
-  <si>
-    <t>01背包问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>accepted</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rounders</t>
-  </si>
-  <si>
-    <t>数字进位处理。逐位四舍五入。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注意所有硬币一开始是在一个圆上面。那么，当n&gt;3的时候，如果n为偶数，后手和先手对称拿硬币，后手必胜。如果n为奇数，一开始和先手凑出三个硬币，转化为n为偶数的情况，同样为后手必胜。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2进制高精度算法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注意特殊的和为0的时候</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A + B</t>
-  </si>
-  <si>
-    <t>高精度运算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>可以从1201改过来</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -706,6 +671,45 @@
   </si>
   <si>
     <t>计算组合数</t>
+  </si>
+  <si>
+    <t>进制转换</t>
+  </si>
+  <si>
+    <t>阶乘之和</t>
+  </si>
+  <si>
+    <t>关键是要发现从什么数开始，阶乘已经突破1000000.观察发现 当n&gt;=24之后 余数恒为940313</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计数字</t>
+  </si>
+  <si>
+    <t>用stl中的map就可以解决了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flood</t>
+  </si>
+  <si>
+    <t>小明与奶牛</t>
+  </si>
+  <si>
+    <t>Phone List</t>
+  </si>
+  <si>
+    <t>New Clothes(新衣服)</t>
+  </si>
+  <si>
+    <t>奖金</t>
+  </si>
+  <si>
+    <t>简单哈希</t>
+  </si>
+  <si>
+    <t>哈希表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1124,8 +1128,8 @@
   <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E91" sqref="E91:E92"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1156,681 +1160,726 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="27">
       <c r="A2" s="1">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="27">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>88</v>
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>1007</v>
+        <v>1014</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="27">
       <c r="A5" s="1">
-        <v>1014</v>
+        <v>1020</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>19</v>
+        <v>132</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="27">
+      <c r="E5" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>141</v>
+        <v>63</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>142</v>
+        <v>64</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="27">
       <c r="A7" s="1">
-        <v>1021</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>70</v>
+        <v>1027</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>134</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>71</v>
+        <v>135</v>
       </c>
       <c r="D7" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="27">
+        <v>36</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>1027</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>143</v>
+        <v>1029</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>145</v>
+      <c r="E8" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>1029</v>
+        <v>1035</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>104</v>
+        <v>116</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>1035</v>
+        <v>1052</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="D10" s="1">
         <v>2</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="E10" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="67.5">
       <c r="A11" s="1">
-        <v>1036</v>
+        <v>1087</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
+      <c r="E11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>1052</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>82</v>
+        <v>1093</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>138</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="D12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="67.5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>1087</v>
+        <v>1097</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>168</v>
+        <v>46</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>1093</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>43</v>
+        <v>1122</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>1097</v>
+        <v>1144</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>43</v>
+        <v>5</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>1145</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="27">
       <c r="A17" s="1">
-        <v>1100</v>
+        <v>1147</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
       </c>
+      <c r="E17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>1122</v>
+        <v>1154</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>56</v>
+        <v>19</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>1129</v>
+        <v>1155</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="27">
+      <c r="A20" s="1">
+        <v>1157</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="27">
+      <c r="A21" s="1">
+        <v>1198</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="1">
-        <v>1130</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D20" s="1">
-        <v>3</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="1">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="40.5">
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
-        <v>1134</v>
+        <v>1199</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>105</v>
+        <v>113</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="D22" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
-        <v>1144</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>5</v>
+        <v>1201</v>
+      </c>
+      <c r="B23" s="6">
+        <v>1000001</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>29</v>
+        <v>160</v>
       </c>
       <c r="D23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
-        <v>1145</v>
+        <v>1209</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="D24" s="1">
-        <v>0</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="27">
+        <v>2</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
-        <v>1147</v>
+        <v>1218</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="D25" s="1">
-        <v>1</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>93</v>
+        <v>2</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1">
-        <v>1154</v>
+        <v>1232</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
-        <v>1155</v>
-      </c>
-      <c r="B27" s="6" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>1286</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1">
+        <v>1293</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D27" s="1">
-        <v>1</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="27">
-      <c r="A28" s="1">
-        <v>1157</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="27">
-      <c r="A29" s="1">
-        <v>1198</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="D29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>157</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
-        <v>1199</v>
+        <v>1294</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D30" s="1">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
-        <v>1201</v>
-      </c>
-      <c r="B31" s="6">
-        <v>1000001</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D31" s="1">
-        <v>1</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>170</v>
+        <v>1302</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1">
-        <v>1209</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>72</v>
+        <v>1306</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>152</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D32" s="1">
-        <v>2</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>153</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="27">
       <c r="A33" s="1">
-        <v>1218</v>
+        <v>1323</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="D33" s="1">
-        <v>2</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>43</v>
+        <v>3</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1">
-        <v>1232</v>
+        <v>1324</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D34" s="1">
         <v>0</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="27">
       <c r="A35" s="1">
-        <v>1282</v>
+        <v>1325</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>133</v>
+        <v>18</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>134</v>
+        <v>34</v>
       </c>
       <c r="D35" s="1">
-        <v>2</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>43</v>
+        <v>0</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1">
-        <v>1286</v>
+        <v>1341</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1">
-        <v>1293</v>
+        <v>1342</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>43</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1">
-        <v>1294</v>
+        <v>1350</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>50</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="27">
       <c r="A39" s="1">
-        <v>1298</v>
+        <v>1381</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="D39" s="1">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1">
-        <v>1299</v>
+        <v>1388</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1">
-        <v>1302</v>
+        <v>1482</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>43</v>
+        <v>89</v>
+      </c>
+      <c r="D41" s="1">
+        <v>2</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1">
-        <v>1306</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>162</v>
+        <v>1484</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" s="1">
+        <v>4</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="27">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1">
-        <v>1323</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>118</v>
+        <v>1485</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>90</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="D43" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>121</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1">
-        <v>1324</v>
+        <v>1510</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>29</v>
@@ -1842,739 +1891,730 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="27">
+    <row r="45" spans="1:6">
       <c r="A45" s="1">
-        <v>1325</v>
+        <v>1608</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="D45" s="1">
         <v>0</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1">
-        <v>1341</v>
+        <v>1624</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D46" s="1">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1">
-        <v>1342</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>163</v>
+        <v>1639</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>164</v>
+        <v>84</v>
       </c>
       <c r="D47" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>165</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1">
-        <v>1350</v>
+        <v>1692</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="27">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1">
-        <v>1381</v>
+        <v>1694</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D49" s="1">
-        <v>2</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>101</v>
+        <v>47</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1">
-        <v>1388</v>
+        <v>1747</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D50" s="1">
-        <v>0</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1">
-        <v>1395</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>167</v>
+        <v>1753</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="D51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1">
-        <v>1482</v>
+        <v>1813</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>98</v>
+        <v>16</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D52" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>115</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1">
-        <v>1484</v>
+        <v>1814</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>97</v>
+        <v>20</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="D53" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>43</v>
+        <v>122</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1">
-        <v>1485</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>100</v>
+        <v>1815</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="D54" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1">
-        <v>1500</v>
+        <v>1817</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D55" s="1">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1">
-        <v>1510</v>
+        <v>1818</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D56" s="1">
-        <v>0</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="40.5">
       <c r="A57" s="1">
-        <v>1561</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>17</v>
+        <v>1863</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="D57" s="1">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1">
-        <v>1608</v>
+        <v>1930</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>112</v>
+        <v>37</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="D58" s="1">
         <v>0</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>113</v>
+      <c r="E58" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1">
-        <v>1624</v>
+        <v>1931</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>43</v>
+        <v>66</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1">
-        <v>1639</v>
+        <v>2501</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="D60" s="1">
-        <v>2</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>92</v>
+        <v>1</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1">
-        <v>1692</v>
+        <v>3496</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1">
-        <v>1694</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>43</v>
+        <v>3718</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1">
-        <v>1747</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>43</v>
+        <v>3836</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1">
-        <v>1753</v>
+        <v>3912</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>136</v>
+        <v>55</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="D64" s="1">
         <v>0</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+      <c r="E64" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="40.5">
       <c r="A65" s="1">
-        <v>1767</v>
+        <v>3913</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D65" s="1">
+        <v>1</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1">
-        <v>1795</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>32</v>
+        <v>3980</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>165</v>
       </c>
       <c r="D66" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1">
-        <v>1798</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>33</v>
+        <v>4187</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>169</v>
       </c>
       <c r="D67" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1">
-        <v>1813</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>20</v>
+        <v>4188</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>173</v>
       </c>
       <c r="D68" s="1">
-        <v>1</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>43</v>
+        <v>0</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1">
-        <v>1814</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>135</v>
+        <v>4189</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>176</v>
       </c>
       <c r="D69" s="1">
-        <v>1</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>131</v>
+        <v>0</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1">
-        <v>1815</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>25</v>
+        <v>4312</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="D70" s="1">
         <v>0</v>
       </c>
-      <c r="E70" s="1" t="s">
-        <v>43</v>
+      <c r="E70" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="40.5">
       <c r="A71" s="1">
-        <v>1816</v>
+        <v>4629</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>26</v>
+        <v>56</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D71" s="1">
+        <v>0</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1">
-        <v>1817</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>27</v>
+        <v>4700</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D72" s="1">
+        <v>0</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1">
-        <v>1818</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>28</v>
+        <v>4950</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>168</v>
       </c>
       <c r="D73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="40.5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1">
-        <v>1863</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>77</v>
+        <v>5232</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>178</v>
       </c>
       <c r="D74" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1">
-        <v>1930</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>45</v>
+        <v>6864</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>170</v>
       </c>
       <c r="D75" s="1">
         <v>0</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1">
-        <v>1931</v>
+        <v>9992</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="D76" s="1">
         <v>0</v>
       </c>
-      <c r="E76" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>111</v>
+      <c r="E76" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1">
-        <v>2501</v>
+        <v>9993</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="D77" s="1">
         <v>1</v>
       </c>
-      <c r="E77" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F77" s="1" t="s">
+      <c r="E77" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="27">
+      <c r="A78" s="1">
+        <v>9994</v>
+      </c>
+      <c r="B78" s="5" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="1">
-        <v>3496</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="D78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1">
-        <v>3718</v>
+        <v>10709</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="D79" s="1">
         <v>0</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1">
-        <v>3912</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>66</v>
+        <v>10710</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="D80" s="1">
         <v>0</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="1">
-        <v>3980</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>174</v>
+        <v>1000</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="D81" s="1">
         <v>0</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="1">
-        <v>4187</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>178</v>
+        <v>1129</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="D82" s="1">
         <v>0</v>
       </c>
-      <c r="E82" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="E82" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="40.5">
       <c r="A83" s="1">
-        <v>4312</v>
-      </c>
-      <c r="B83" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>172</v>
+        <v>1134</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="D83" s="1">
-        <v>0</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>43</v>
+        <v>1</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="40.5">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1">
-        <v>4629</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>63</v>
+        <v>1395</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>157</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>67</v>
+        <v>158</v>
       </c>
       <c r="D84" s="1">
-        <v>0</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>114</v>
+        <v>1</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="1">
-        <v>4950</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>177</v>
+        <v>1130</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="D85" s="1">
-        <v>0</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>43</v>
+        <v>3</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="1">
-        <v>6864</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>179</v>
+        <v>1036</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="D86" s="1">
-        <v>0</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>175</v>
+        <v>1</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="1">
-        <v>9992</v>
+        <v>1298</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>137</v>
+        <v>17</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="D87" s="1">
-        <v>0</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="1">
-        <v>9993</v>
+        <v>1816</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D88" s="1">
-        <v>1</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="27">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1">
-        <v>9994</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D89" s="1">
-        <v>1</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>43</v>
+        <v>1426</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="1">
-        <v>10709</v>
+        <v>1418</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="D90" s="1">
-        <v>0</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="1">
-        <v>10710</v>
+        <v>1424</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="D91" s="1">
-        <v>0</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="1">
-        <v>3836</v>
-      </c>
-      <c r="B92" s="9" t="s">
-        <v>181</v>
+        <v>8647</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="D92" s="1">
         <v>0</v>
       </c>
-      <c r="E92" s="2" t="s">
+      <c r="E92" s="1" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F68">
-    <sortState ref="A2:F91">
-      <sortCondition ref="A1:A68"/>
+  <autoFilter ref="A1:F59">
+    <sortState ref="A2:F88">
+      <sortCondition ref="E1:E59"/>
     </sortState>
   </autoFilter>
   <sortState ref="A2:F70">
@@ -2583,25 +2623,32 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1" display="http://soj.me/problem.php?pid=1093"/>
-    <hyperlink ref="B19" r:id="rId2" display="http://soj.me/problem.php?pid=1129"/>
-    <hyperlink ref="B27" r:id="rId3" display="http://soj.me/problem.php?pid=1155"/>
-    <hyperlink ref="B29" r:id="rId4" display="http://soj.me/problem.php?pid=1198"/>
-    <hyperlink ref="B37" r:id="rId5" display="http://soj.me/problem.php?pid=1293"/>
-    <hyperlink ref="B42" r:id="rId6" display="http://soj.me/problem.php?pid=1306"/>
-    <hyperlink ref="B47" r:id="rId7" display="http://soj.me/problem.php?pid=1342"/>
-    <hyperlink ref="B51" r:id="rId8" display="http://soj.me/problem.php?pid=1395"/>
-    <hyperlink ref="B31" r:id="rId9" display="http://soj.me/problem.php?pid=1201"/>
-    <hyperlink ref="B83" r:id="rId10" display="http://soj.me/problem.php?pid=4312"/>
-    <hyperlink ref="B81" r:id="rId11" display="http://soj.me/problem.php?pid=3980"/>
-    <hyperlink ref="B90" r:id="rId12" display="http://soj.me/problem.php?pid=10709"/>
-    <hyperlink ref="B91" r:id="rId13" display="http://soj.me/problem.php?pid=10710"/>
-    <hyperlink ref="B85" r:id="rId14" display="http://soj.me/problem.php?pid=4950"/>
-    <hyperlink ref="B82" r:id="rId15" display="http://soj.me/problem.php?pid=4187"/>
-    <hyperlink ref="B86" r:id="rId16" display="http://soj.me/problem.php?pid=6864"/>
-    <hyperlink ref="B79" r:id="rId17" display="http://soj.me/problem.php?pid=3718"/>
+    <hyperlink ref="B12" r:id="rId1" display="http://soj.me/problem.php?pid=1093"/>
+    <hyperlink ref="B82" r:id="rId2" display="http://soj.me/problem.php?pid=1129"/>
+    <hyperlink ref="B19" r:id="rId3" display="http://soj.me/problem.php?pid=1155"/>
+    <hyperlink ref="B21" r:id="rId4" display="http://soj.me/problem.php?pid=1198"/>
+    <hyperlink ref="B29" r:id="rId5" display="http://soj.me/problem.php?pid=1293"/>
+    <hyperlink ref="B32" r:id="rId6" display="http://soj.me/problem.php?pid=1306"/>
+    <hyperlink ref="B37" r:id="rId7" display="http://soj.me/problem.php?pid=1342"/>
+    <hyperlink ref="B84" r:id="rId8" display="http://soj.me/problem.php?pid=1395"/>
+    <hyperlink ref="B23" r:id="rId9" display="http://soj.me/problem.php?pid=1201"/>
+    <hyperlink ref="B70" r:id="rId10" display="http://soj.me/problem.php?pid=4312"/>
+    <hyperlink ref="B66" r:id="rId11" display="http://soj.me/problem.php?pid=3980"/>
+    <hyperlink ref="B79" r:id="rId12" display="http://soj.me/problem.php?pid=10709"/>
+    <hyperlink ref="B80" r:id="rId13" display="http://soj.me/problem.php?pid=10710"/>
+    <hyperlink ref="B73" r:id="rId14" display="http://soj.me/problem.php?pid=4950"/>
+    <hyperlink ref="B67" r:id="rId15" display="http://soj.me/problem.php?pid=4187"/>
+    <hyperlink ref="B75" r:id="rId16" display="http://soj.me/problem.php?pid=6864"/>
+    <hyperlink ref="B62" r:id="rId17" display="http://soj.me/problem.php?pid=3718"/>
+    <hyperlink ref="B68" r:id="rId18" display="http://soj.me/problem.php?pid=4188"/>
+    <hyperlink ref="B65" r:id="rId19" display="http://soj.me/problem.php?pid=3913"/>
+    <hyperlink ref="B74" r:id="rId20" display="http://soj.me/show_problem.php?pid=5232"/>
+    <hyperlink ref="B89" r:id="rId21" display="http://soj.me/problem.php?pid=1426"/>
+    <hyperlink ref="B90" r:id="rId22" display="http://soj.me/problem.php?pid=1418"/>
+    <hyperlink ref="B91" r:id="rId23" display="http://soj.me/problem.php?pid=1424"/>
+    <hyperlink ref="B92" r:id="rId24" display="http://soj.me/problem.php?pid=8647"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId25"/>
 </worksheet>
 </file>
--- a/sicily可供练习题目.xlsx
+++ b/sicily可供练习题目.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16860" yWindow="60" windowWidth="19395" windowHeight="8280"/>
+    <workbookView xWindow="18720" yWindow="60" windowWidth="19395" windowHeight="8280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="187">
   <si>
     <t>题号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -709,6 +709,14 @@
   </si>
   <si>
     <t>哈希表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用字典序排好，然后与上一个电话号码比较即可。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拓扑排序、遍历</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1128,8 +1136,8 @@
   <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A93" sqref="A93"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1912,7 +1920,7 @@
       <c r="B46" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E46" s="3" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1976,7 +1984,7 @@
       <c r="D51" s="1">
         <v>0</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E51" s="3" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2010,7 +2018,7 @@
       <c r="D53" s="1">
         <v>1</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E53" s="3" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2038,7 +2046,7 @@
       <c r="B55" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="E55" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2375,38 +2383,41 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1">
-        <v>9992</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>128</v>
+        <v>8647</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="D76" s="1">
         <v>0</v>
       </c>
-      <c r="E76" s="2" t="s">
-        <v>36</v>
+      <c r="E76" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1">
+        <v>9992</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D77" s="1">
+        <v>0</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="1">
         <v>9993</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B78" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="D77" s="1">
-        <v>1</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="27">
-      <c r="A78" s="1">
-        <v>9994</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>130</v>
       </c>
       <c r="D78" s="1">
         <v>1</v>
@@ -2415,26 +2426,23 @@
         <v>36</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" ht="27">
       <c r="A79" s="1">
-        <v>10709</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>167</v>
+        <v>9994</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="D79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1">
-        <v>10710</v>
+        <v>10709</v>
       </c>
       <c r="B80" s="8" t="s">
         <v>167</v>
@@ -2451,41 +2459,44 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="1">
-        <v>1000</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>73</v>
+        <v>10710</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="D81" s="1">
         <v>0</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>74</v>
+        <v>36</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="1">
-        <v>1129</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>141</v>
+        <v>1000</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="D82" s="1">
         <v>0</v>
       </c>
-      <c r="E82" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="40.5">
+      <c r="E82" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1">
-        <v>1134</v>
+        <v>1036</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>96</v>
+        <v>62</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="D83" s="1">
         <v>1</v>
@@ -2493,53 +2504,50 @@
       <c r="E83" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F83" s="1" t="s">
-        <v>108</v>
-      </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1">
-        <v>1395</v>
+        <v>1129</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="D84" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" ht="40.5">
       <c r="A85" s="1">
-        <v>1130</v>
+        <v>1134</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D85" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="1">
-        <v>1036</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>62</v>
+        <v>1395</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>157</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>31</v>
+        <v>158</v>
       </c>
       <c r="D86" s="1">
         <v>1</v>
@@ -2550,70 +2558,88 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="1">
-        <v>1298</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>17</v>
+        <v>1424</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>182</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>33</v>
+        <v>186</v>
       </c>
       <c r="D87" s="1">
+        <v>2</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="27">
+      <c r="A88" s="1">
+        <v>1426</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="D88" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88" s="1">
-        <v>1816</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>22</v>
+      <c r="E88" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="1">
-        <v>1426</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>180</v>
+        <v>1130</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D89" s="1">
+        <v>3</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="1">
-        <v>1418</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>181</v>
+        <v>1298</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D90" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="1">
-        <v>1424</v>
+        <v>1418</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="1">
-        <v>8647</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D92" s="1">
-        <v>0</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>43</v>
+        <v>1816</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F59">
-    <sortState ref="A2:F88">
+    <sortState ref="A2:F92">
       <sortCondition ref="E1:E59"/>
     </sortState>
   </autoFilter>
@@ -2624,18 +2650,18 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B12" r:id="rId1" display="http://soj.me/problem.php?pid=1093"/>
-    <hyperlink ref="B82" r:id="rId2" display="http://soj.me/problem.php?pid=1129"/>
+    <hyperlink ref="B84" r:id="rId2" display="http://soj.me/problem.php?pid=1129"/>
     <hyperlink ref="B19" r:id="rId3" display="http://soj.me/problem.php?pid=1155"/>
     <hyperlink ref="B21" r:id="rId4" display="http://soj.me/problem.php?pid=1198"/>
     <hyperlink ref="B29" r:id="rId5" display="http://soj.me/problem.php?pid=1293"/>
     <hyperlink ref="B32" r:id="rId6" display="http://soj.me/problem.php?pid=1306"/>
     <hyperlink ref="B37" r:id="rId7" display="http://soj.me/problem.php?pid=1342"/>
-    <hyperlink ref="B84" r:id="rId8" display="http://soj.me/problem.php?pid=1395"/>
+    <hyperlink ref="B86" r:id="rId8" display="http://soj.me/problem.php?pid=1395"/>
     <hyperlink ref="B23" r:id="rId9" display="http://soj.me/problem.php?pid=1201"/>
     <hyperlink ref="B70" r:id="rId10" display="http://soj.me/problem.php?pid=4312"/>
     <hyperlink ref="B66" r:id="rId11" display="http://soj.me/problem.php?pid=3980"/>
-    <hyperlink ref="B79" r:id="rId12" display="http://soj.me/problem.php?pid=10709"/>
-    <hyperlink ref="B80" r:id="rId13" display="http://soj.me/problem.php?pid=10710"/>
+    <hyperlink ref="B80" r:id="rId12" display="http://soj.me/problem.php?pid=10709"/>
+    <hyperlink ref="B81" r:id="rId13" display="http://soj.me/problem.php?pid=10710"/>
     <hyperlink ref="B73" r:id="rId14" display="http://soj.me/problem.php?pid=4950"/>
     <hyperlink ref="B67" r:id="rId15" display="http://soj.me/problem.php?pid=4187"/>
     <hyperlink ref="B75" r:id="rId16" display="http://soj.me/problem.php?pid=6864"/>
@@ -2643,10 +2669,10 @@
     <hyperlink ref="B68" r:id="rId18" display="http://soj.me/problem.php?pid=4188"/>
     <hyperlink ref="B65" r:id="rId19" display="http://soj.me/problem.php?pid=3913"/>
     <hyperlink ref="B74" r:id="rId20" display="http://soj.me/show_problem.php?pid=5232"/>
-    <hyperlink ref="B89" r:id="rId21" display="http://soj.me/problem.php?pid=1426"/>
-    <hyperlink ref="B90" r:id="rId22" display="http://soj.me/problem.php?pid=1418"/>
-    <hyperlink ref="B91" r:id="rId23" display="http://soj.me/problem.php?pid=1424"/>
-    <hyperlink ref="B92" r:id="rId24" display="http://soj.me/problem.php?pid=8647"/>
+    <hyperlink ref="B88" r:id="rId21" display="http://soj.me/problem.php?pid=1426"/>
+    <hyperlink ref="B91" r:id="rId22" display="http://soj.me/problem.php?pid=1418"/>
+    <hyperlink ref="B87" r:id="rId23" display="http://soj.me/problem.php?pid=1424"/>
+    <hyperlink ref="B76" r:id="rId24" display="http://soj.me/problem.php?pid=8647"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId25"/>
